--- a/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA113A40-8C36-4292-B818-056E3FC91D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E875161A-CBE8-4731-816D-065832AC3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85ED323F-D5EC-4087-8B8B-051FEBD64DBF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C836C32-04CF-4825-BAB8-0A4C0C98CEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>87,41%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>89,08%</t>
@@ -95,307 +95,313 @@
     <t>84,49%</t>
   </si>
   <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>9,73%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F2EC0-4ADC-40B0-B62E-CC10571071E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28BF9A5-E888-49CD-9765-F78AB1D027B3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1268,13 +1274,13 @@
         <v>910750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>2087</v>
@@ -1283,13 +1289,13 @@
         <v>1802115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,13 +1310,13 @@
         <v>78555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -1319,13 +1325,13 @@
         <v>84703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -1334,13 +1340,13 @@
         <v>163258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1402,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1408,13 +1414,13 @@
         <v>633518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>894</v>
@@ -1423,13 +1429,13 @@
         <v>762594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1477</v>
@@ -1438,13 +1444,13 @@
         <v>1396113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1465,13 @@
         <v>63552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -1474,13 +1480,13 @@
         <v>67402</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -1489,13 +1495,13 @@
         <v>130954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1569,13 @@
         <v>837144</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1301</v>
@@ -1578,13 +1584,13 @@
         <v>961681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2152</v>
@@ -1593,13 +1599,13 @@
         <v>1798825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>78208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -1629,13 +1635,13 @@
         <v>110215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>241</v>
@@ -1644,13 +1650,13 @@
         <v>188423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>2902699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>4452</v>
@@ -1733,13 +1739,13 @@
         <v>3225081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>7285</v>
@@ -1748,13 +1754,13 @@
         <v>6127779</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>268138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>532</v>
@@ -1784,13 +1790,13 @@
         <v>329719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
@@ -1799,13 +1805,13 @@
         <v>597857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E875161A-CBE8-4731-816D-065832AC3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F23C37-D57F-4482-8B90-5149FEEA6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C836C32-04CF-4825-BAB8-0A4C0C98CEFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12E652C2-9C4B-4AB5-A72C-F8F50141F72E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>92,7%</t>
@@ -188,7 +188,7 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,9%</t>
@@ -245,7 +245,7 @@
     <t>9,76%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>90,88%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28BF9A5-E888-49CD-9765-F78AB1D027B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83FC41A-2F61-4052-9DBB-5E8CA4B0571C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F23C37-D57F-4482-8B90-5149FEEA6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C3B34E-6576-4CE3-8E07-86FA66040C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12E652C2-9C4B-4AB5-A72C-F8F50141F72E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB696FEB-A26E-409B-A350-F8BD12F3C41F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>87,41%</t>
   </si>
   <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>89,08%</t>
@@ -95,7 +95,7 @@
     <t>84,49%</t>
   </si>
   <si>
-    <t>92,62%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +104,25 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>15,51%</t>
@@ -137,55 +137,55 @@
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,49 @@
     <t>91,9%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +245,55 @@
     <t>90,88%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,73 +302,73 @@
     <t>91,46%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -389,19 +383,19 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83FC41A-2F61-4052-9DBB-5E8CA4B0571C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481A3FC-4505-4047-A779-7B63E1ECF768}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1274,13 +1268,13 @@
         <v>910750</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>2087</v>
@@ -1289,13 +1283,13 @@
         <v>1802115</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,13 +1304,13 @@
         <v>78555</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -1325,13 +1319,13 @@
         <v>84703</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -1340,13 +1334,13 @@
         <v>163258</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,13 +1408,13 @@
         <v>633518</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>894</v>
@@ -1429,13 +1423,13 @@
         <v>762594</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1477</v>
@@ -1444,13 +1438,13 @@
         <v>1396113</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1459,13 @@
         <v>63552</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -1480,13 +1474,13 @@
         <v>67402</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -1495,13 +1489,13 @@
         <v>130954</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1563,13 @@
         <v>837144</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1301</v>
@@ -1584,13 +1578,13 @@
         <v>961681</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2152</v>
@@ -1599,13 +1593,13 @@
         <v>1798825</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>78208</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -1635,13 +1629,13 @@
         <v>110215</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>241</v>
@@ -1650,13 +1644,13 @@
         <v>188423</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>2902699</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>4452</v>
@@ -1739,13 +1733,13 @@
         <v>3225081</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>7285</v>
@@ -1754,13 +1748,13 @@
         <v>6127779</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>268138</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>532</v>
@@ -1790,13 +1784,13 @@
         <v>329719</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
@@ -1805,13 +1799,13 @@
         <v>597857</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C3B34E-6576-4CE3-8E07-86FA66040C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C016C84-E849-4CA8-831C-B523430B7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB696FEB-A26E-409B-A350-F8BD12F3C41F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6EAB7C16-7E75-4B0D-A917-54E7FD5C00FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>89,63%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481A3FC-4505-4047-A779-7B63E1ECF768}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794BAF97-36D8-4847-9A47-A31F2379FBDE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="D4" s="7">
-        <v>80397</v>
+        <v>528808</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>196</v>
+        <v>977</v>
       </c>
       <c r="I4" s="7">
-        <v>106252</v>
+        <v>551672</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>285</v>
+        <v>1569</v>
       </c>
       <c r="N4" s="7">
-        <v>186650</v>
+        <v>1080481</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>11575</v>
+        <v>45515</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I5" s="7">
-        <v>11316</v>
+        <v>63565</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="N5" s="7">
-        <v>22890</v>
+        <v>109080</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>104</v>
+        <v>659</v>
       </c>
       <c r="D6" s="7">
-        <v>91972</v>
+        <v>574323</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>216</v>
+        <v>1111</v>
       </c>
       <c r="I6" s="7">
-        <v>117568</v>
+        <v>615237</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>320</v>
+        <v>1770</v>
       </c>
       <c r="N6" s="7">
-        <v>209540</v>
+        <v>1189561</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>503</v>
+        <v>807</v>
       </c>
       <c r="D7" s="7">
-        <v>460273</v>
+        <v>1052366</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>781</v>
+        <v>1280</v>
       </c>
       <c r="I7" s="7">
-        <v>483803</v>
+        <v>822860</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1284</v>
+        <v>2087</v>
       </c>
       <c r="N7" s="7">
-        <v>944076</v>
+        <v>1875226</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>36249</v>
+        <v>76629</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>56083</v>
+        <v>77927</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="N8" s="7">
-        <v>92332</v>
+        <v>154556</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>555</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>496522</v>
+        <v>1128995</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>895</v>
+        <v>1421</v>
       </c>
       <c r="I9" s="7">
-        <v>539886</v>
+        <v>900787</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1450</v>
+        <v>2317</v>
       </c>
       <c r="N9" s="7">
-        <v>1036408</v>
+        <v>2029782</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>807</v>
+        <v>583</v>
       </c>
       <c r="D10" s="7">
-        <v>891365</v>
+        <v>612459</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,34 +1205,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1280</v>
+        <v>894</v>
       </c>
       <c r="I10" s="7">
-        <v>910750</v>
+        <v>804738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>2087</v>
+        <v>1477</v>
       </c>
       <c r="N10" s="7">
-        <v>1802115</v>
+        <v>1417198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>78555</v>
+        <v>63912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>84703</v>
+        <v>63146</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="N11" s="7">
-        <v>163258</v>
+        <v>127057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>647</v>
       </c>
       <c r="D12" s="7">
-        <v>969920</v>
+        <v>676371</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1421</v>
+        <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>995453</v>
+        <v>867884</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2317</v>
+        <v>1650</v>
       </c>
       <c r="N12" s="7">
-        <v>1965373</v>
+        <v>1544255</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>583</v>
+        <v>851</v>
       </c>
       <c r="D13" s="7">
-        <v>633518</v>
+        <v>806740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>894</v>
+        <v>1301</v>
       </c>
       <c r="I13" s="7">
-        <v>762594</v>
+        <v>871091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1477</v>
+        <v>2152</v>
       </c>
       <c r="N13" s="7">
-        <v>1396113</v>
+        <v>1677831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>63552</v>
+        <v>73763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="I14" s="7">
-        <v>67402</v>
+        <v>155323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="N14" s="7">
-        <v>130954</v>
+        <v>229086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>647</v>
+        <v>944</v>
       </c>
       <c r="D15" s="7">
-        <v>697070</v>
+        <v>880503</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1003</v>
+        <v>1449</v>
       </c>
       <c r="I15" s="7">
-        <v>829996</v>
+        <v>1026414</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1650</v>
+        <v>2393</v>
       </c>
       <c r="N15" s="7">
-        <v>1527067</v>
+        <v>1906917</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,31 +1494,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>851</v>
+        <v>2833</v>
       </c>
       <c r="D16" s="7">
-        <v>837144</v>
+        <v>3000375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>1301</v>
+        <v>4452</v>
       </c>
       <c r="I16" s="7">
-        <v>961681</v>
+        <v>3050363</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1587,10 +1530,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>2152</v>
+        <v>7285</v>
       </c>
       <c r="N16" s="7">
-        <v>1798825</v>
+        <v>6050738</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1608,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="D17" s="7">
-        <v>78208</v>
+        <v>259818</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -1620,37 +1563,37 @@
         <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="7">
+        <v>532</v>
+      </c>
+      <c r="I17" s="7">
+        <v>359960</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>148</v>
-      </c>
-      <c r="I17" s="7">
-        <v>110215</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>845</v>
+      </c>
+      <c r="N17" s="7">
+        <v>619778</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>241</v>
-      </c>
-      <c r="N17" s="7">
-        <v>188423</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>944</v>
+        <v>3146</v>
       </c>
       <c r="D18" s="7">
-        <v>915352</v>
+        <v>3260193</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1449</v>
+        <v>4984</v>
       </c>
       <c r="I18" s="7">
-        <v>1071896</v>
+        <v>3410323</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2393</v>
+        <v>8130</v>
       </c>
       <c r="N18" s="7">
-        <v>1987248</v>
+        <v>6670516</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2833</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2902699</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4452</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3225081</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7285</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6127779</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>313</v>
-      </c>
-      <c r="D20" s="7">
-        <v>268138</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>532</v>
-      </c>
-      <c r="I20" s="7">
-        <v>329719</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>845</v>
-      </c>
-      <c r="N20" s="7">
-        <v>597857</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3146</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3170837</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4984</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3554800</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8130</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6725636</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
